--- a/Lab2/homework/exer2/ban_bao_cao.xlsx
+++ b/Lab2/homework/exer2/ban_bao_cao.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="516" yWindow="564" windowWidth="15996" windowHeight="5244"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pyexcel_sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pyexcel_sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Quý 1-2017</t>
   </si>
@@ -43,8 +43,9 @@
     <t>11,838,267,527,921</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                1. Doanh thu bán hàng và cung cấp dịch vụ
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                1. Doanh thu bán hàng và cung cấp dịch vụ_x000D_
             </t>
   </si>
   <si>
@@ -60,8 +61,9 @@
     <t>30,656,778,415</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                2. Các khoản giảm trừ doanh thu
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                2. Các khoản giảm trừ doanh thu_x000D_
             </t>
   </si>
   <si>
@@ -77,8 +79,9 @@
     <t>11,807,610,749,506</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                3. Doanh thu thuần về bán hàng và cung cấp dịch vụ
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                3. Doanh thu thuần về bán hàng và cung cấp dịch vụ_x000D_
             </t>
   </si>
   <si>
@@ -94,8 +97,9 @@
     <t>6,327,315,699,575</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                4. Giá vốn hàng bán
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                4. Giá vốn hàng bán_x000D_
             </t>
   </si>
   <si>
@@ -111,8 +115,9 @@
     <t>5,480,295,049,931</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                5. Lợi nhuận gộp về bán hàng và cung cấp dịch vụ
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                5. Lợi nhuận gộp về bán hàng và cung cấp dịch vụ_x000D_
             </t>
   </si>
   <si>
@@ -128,8 +133,9 @@
     <t>194,133,215,944</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                6. Doanh thu hoạt động tài chính
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                6. Doanh thu hoạt động tài chính_x000D_
             </t>
   </si>
   <si>
@@ -145,8 +151,9 @@
     <t>33,702,023,732</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                7. Chi phí tài chính
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                7. Chi phí tài chính_x000D_
             </t>
   </si>
   <si>
@@ -162,8 +169,9 @@
     <t>-6,270,069,878</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                8. Phần lãi lỗ hoặc lỗ trong công ty liên doanh, liên kết
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                8. Phần lãi lỗ hoặc lỗ trong công ty liên doanh, liên kết_x000D_
             </t>
   </si>
   <si>
@@ -179,8 +187,9 @@
     <t>3,192,490,113,496</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                9. Chi phí bán hàng
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                9. Chi phí bán hàng_x000D_
             </t>
   </si>
   <si>
@@ -196,8 +205,9 @@
     <t>296,402,762,521</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                10. Chi phí quản lý doanh nghiệp
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                10. Chi phí quản lý doanh nghiệp_x000D_
             </t>
   </si>
   <si>
@@ -213,8 +223,9 @@
     <t>2,145,563,296,248</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                11. Lợi nhuận thuần từ hoạt động kinh doanh
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                11. Lợi nhuận thuần từ hoạt động kinh doanh_x000D_
             </t>
   </si>
   <si>
@@ -230,8 +241,9 @@
     <t>94,658,510,605</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                12. Thu nhập khác
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                12. Thu nhập khác_x000D_
             </t>
   </si>
   <si>
@@ -247,8 +259,9 @@
     <t>36,051,875,486</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                13. Chi phí khác
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                13. Chi phí khác_x000D_
             </t>
   </si>
   <si>
@@ -264,8 +277,9 @@
     <t>58,606,635,119</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                14. Lợi nhuận khác
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                14. Lợi nhuận khác_x000D_
             </t>
   </si>
   <si>
@@ -281,8 +295,9 @@
     <t>2,204,169,931,367</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                15. Tổng lợi nhuận kế toán trước thuế
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                15. Tổng lợi nhuận kế toán trước thuế_x000D_
             </t>
   </si>
   <si>
@@ -298,8 +313,9 @@
     <t>377,978,824,943</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                16. Chi phí thuế TNDN hiện hành
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                16. Chi phí thuế TNDN hiện hành_x000D_
             </t>
   </si>
   <si>
@@ -315,8 +331,9 @@
     <t>-2,096,140,601</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                17. Chi phí thuế TNDN hoãn lại
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                17. Chi phí thuế TNDN hoãn lại_x000D_
             </t>
   </si>
   <si>
@@ -332,8 +349,9 @@
     <t>1,828,287,247,025</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                18. Lợi nhuận sau thuế thu nhập doanh nghiệp
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                18. Lợi nhuận sau thuế thu nhập doanh nghiệp_x000D_
             </t>
   </si>
   <si>
@@ -349,8 +367,9 @@
     <t>-676,593,137</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                18.1 Lợi ích của cổ đông thiểu số
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                18.1 Lợi ích của cổ đông thiểu số_x000D_
             </t>
   </si>
   <si>
@@ -366,8 +385,9 @@
     <t>1,828,963,840,162</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                18.2  Lợi nhuận sau thuế của công ty mẹ
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                18.2  Lợi nhuận sau thuế của công ty mẹ_x000D_
             </t>
   </si>
   <si>
@@ -383,38 +403,40 @@
     <t>1,136</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                19. Lãi cơ bản trên cổ phiếu
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                20. Lãi suy giảm trên cổ phiếu
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                21. Cổ tức
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                19. Lãi cơ bản trên cổ phiếu_x000D_
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                20. Lãi suy giảm trên cổ phiếu_x000D_
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+                  _x000D_
+                21. Cổ tức_x000D_
             </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -430,15 +452,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -726,19 +754,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="49.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -772,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -789,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -806,7 +836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -823,7 +853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -840,7 +870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -857,7 +887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -874,7 +904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -891,7 +921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -908,7 +938,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -925,7 +955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -942,7 +972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -959,7 +989,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -976,7 +1006,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -993,7 +1023,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1010,7 +1040,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -1027,7 +1057,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1044,7 +1074,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -1061,7 +1091,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -1078,7 +1108,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -1095,7 +1125,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -1112,24 +1142,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s"/>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
-      <c r="D23" t="s"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s"/>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
-      <c r="D24" t="s"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>